--- a/actual_data/domestic.xlsx
+++ b/actual_data/domestic.xlsx
@@ -1,31 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d9d98fa56c37d9d/ドキュメント/GitHub/lab/actual_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_AD4D066CA252ABDACC10485A2151EF8673EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C41C37-65AC-4509-B885-0385DE98F3C6}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_AD4D066CA252ABDACC10485A2151EF8673EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA70BCD3-7EEB-4D83-83B9-01743C759873}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="408" windowWidth="13068" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="可視化" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>賛成</t>
     <rPh sb="0" eb="2">
@@ -88,6 +122,39 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
 </sst>
 </file>
 
@@ -146,6 +213,1576 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" sz="1200" b="0"/>
+              <a:t>「夫は外で働き、妻は家庭を守るべきである」という考え方に対する意識</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>可視化!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>賛成</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>可視化!$A$15:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>可視化!$B$15:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F65-441C-9971-1BFAFB4537AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>可視化!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>どちらかといえば賛成</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>可視化!$A$15:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>可視化!$C$15:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F65-441C-9971-1BFAFB4537AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>可視化!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>どちらかといえば反対</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>可視化!$A$15:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>可視化!$D$15:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F65-441C-9971-1BFAFB4537AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>可視化!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>反対</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>可視化!$A$15:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>可視化!$E$15:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5F65-441C-9971-1BFAFB4537AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>可視化!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>わからない</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>可視化!$A$15:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>可視化!$F$15:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5F65-441C-9971-1BFAFB4537AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1021083680"/>
+        <c:axId val="1021080440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1021083680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>調査年</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1021080440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1021080440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP"/>
+                  <a:t>割合</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1021083680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="0.87230005837711622"/>
+          <c:w val="1"/>
+          <c:h val="7.1988732300182226E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47BC5B5-45F5-46D4-BA15-89AB345FA42F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,11 +2047,583 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A416F9-356E-49B5-A019-35BAC72AFAC7}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:C2">_xlfn.TEXTSPLIT(A2, "年")</f>
+        <v>1979</v>
+      </c>
+      <c r="C2" t="str">
+        <v>5月調査</v>
+      </c>
+      <c r="D2">
+        <v>29.1</v>
+      </c>
+      <c r="E2">
+        <v>41</v>
+      </c>
+      <c r="F2">
+        <v>18.3</v>
+      </c>
+      <c r="G2">
+        <v>4.5</v>
+      </c>
+      <c r="H2">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3:C3">_xlfn.TEXTSPLIT(A3, "年")</f>
+        <v>1992</v>
+      </c>
+      <c r="C3" t="str">
+        <v>11月調査</v>
+      </c>
+      <c r="D3">
+        <v>19.8</v>
+      </c>
+      <c r="E3">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F3">
+        <v>26.4</v>
+      </c>
+      <c r="G3">
+        <v>11.9</v>
+      </c>
+      <c r="H3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4:C4">_xlfn.TEXTSPLIT(A4, "年")</f>
+        <v>1997</v>
+      </c>
+      <c r="C4" t="str">
+        <v>9月調査</v>
+      </c>
+      <c r="D4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>26.9</v>
+      </c>
+      <c r="G4">
+        <v>16.7</v>
+      </c>
+      <c r="H4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="str" cm="1">
+        <f t="array" ref="B5:C5">_xlfn.TEXTSPLIT(A5, "年")</f>
+        <v>2002</v>
+      </c>
+      <c r="C5" t="str">
+        <v>7月調査</v>
+      </c>
+      <c r="D5">
+        <v>12.8</v>
+      </c>
+      <c r="E5">
+        <v>30.5</v>
+      </c>
+      <c r="F5">
+        <v>29.4</v>
+      </c>
+      <c r="G5">
+        <v>21.7</v>
+      </c>
+      <c r="H5">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="str" cm="1">
+        <f t="array" ref="B6:C6">_xlfn.TEXTSPLIT(A6, "年")</f>
+        <v>2004</v>
+      </c>
+      <c r="C6" t="str">
+        <v>11月調査</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>30.2</v>
+      </c>
+      <c r="F6">
+        <v>29.5</v>
+      </c>
+      <c r="G6">
+        <v>24.2</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="str" cm="1">
+        <f t="array" ref="B7:C7">_xlfn.TEXTSPLIT(A7, "年")</f>
+        <v>2007</v>
+      </c>
+      <c r="C7" t="str">
+        <v>8月調査</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>27.8</v>
+      </c>
+      <c r="F7">
+        <v>30.7</v>
+      </c>
+      <c r="G7">
+        <v>26.2</v>
+      </c>
+      <c r="H7">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="str" cm="1">
+        <f t="array" ref="B8:C8">_xlfn.TEXTSPLIT(A8, "年")</f>
+        <v>2009</v>
+      </c>
+      <c r="C8" t="str">
+        <v>10月調査</v>
+      </c>
+      <c r="D8">
+        <v>9.5</v>
+      </c>
+      <c r="E8">
+        <v>27.8</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>26.6</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="str" cm="1">
+        <f t="array" ref="B9:C9">_xlfn.TEXTSPLIT(A9, "年")</f>
+        <v>2012</v>
+      </c>
+      <c r="C9" t="str">
+        <v>10月調査</v>
+      </c>
+      <c r="D9">
+        <v>12.4</v>
+      </c>
+      <c r="E9">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>30.4</v>
+      </c>
+      <c r="G9">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H9">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="str" cm="1">
+        <f t="array" ref="B10:C10">_xlfn.TEXTSPLIT(A10, "年")</f>
+        <v>2014</v>
+      </c>
+      <c r="C10" t="str">
+        <v>8月調査</v>
+      </c>
+      <c r="D10">
+        <v>11.2</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G10">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H10">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="str" cm="1">
+        <f t="array" ref="B11:C11">_xlfn.TEXTSPLIT(A11, "年")</f>
+        <v>2016</v>
+      </c>
+      <c r="C11" t="str">
+        <v>9月調査</v>
+      </c>
+      <c r="D11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E11">
+        <v>28.7</v>
+      </c>
+      <c r="F11">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>21.5</v>
+      </c>
+      <c r="H11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="str" cm="1">
+        <f t="array" ref="B12:C12">_xlfn.TEXTSPLIT(A12, "年")</f>
+        <v>2019</v>
+      </c>
+      <c r="C12" t="str">
+        <v>9月調査</v>
+      </c>
+      <c r="D12">
+        <v>6.5</v>
+      </c>
+      <c r="E12">
+        <v>24.6</v>
+      </c>
+      <c r="F12">
+        <v>38.5</v>
+      </c>
+      <c r="G12">
+        <v>24.9</v>
+      </c>
+      <c r="H12">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>29.1</v>
+      </c>
+      <c r="C15">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>18.3</v>
+      </c>
+      <c r="E15">
+        <v>4.5</v>
+      </c>
+      <c r="F15">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>19.8</v>
+      </c>
+      <c r="C16">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D16">
+        <v>26.4</v>
+      </c>
+      <c r="E16">
+        <v>11.9</v>
+      </c>
+      <c r="F16">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C17">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>26.9</v>
+      </c>
+      <c r="E17">
+        <v>16.7</v>
+      </c>
+      <c r="F17">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>12.8</v>
+      </c>
+      <c r="C18">
+        <v>30.5</v>
+      </c>
+      <c r="D18">
+        <v>29.4</v>
+      </c>
+      <c r="E18">
+        <v>21.7</v>
+      </c>
+      <c r="F18">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>30.2</v>
+      </c>
+      <c r="D19">
+        <v>29.5</v>
+      </c>
+      <c r="E19">
+        <v>24.2</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>27.8</v>
+      </c>
+      <c r="D20">
+        <v>30.7</v>
+      </c>
+      <c r="E20">
+        <v>26.2</v>
+      </c>
+      <c r="F20">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>9.5</v>
+      </c>
+      <c r="C21">
+        <v>27.8</v>
+      </c>
+      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>26.6</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>12.4</v>
+      </c>
+      <c r="C22">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>30.4</v>
+      </c>
+      <c r="E22">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F22">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>11.2</v>
+      </c>
+      <c r="C23">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E23">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F23">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C24">
+        <v>28.7</v>
+      </c>
+      <c r="D24">
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <v>21.5</v>
+      </c>
+      <c r="F24">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>6.5</v>
+      </c>
+      <c r="C25">
+        <v>24.6</v>
+      </c>
+      <c r="D25">
+        <v>38.5</v>
+      </c>
+      <c r="E25">
+        <v>24.9</v>
+      </c>
+      <c r="F25">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/actual_data/domestic.xlsx
+++ b/actual_data/domestic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d9d98fa56c37d9d/ドキュメント/GitHub/lab/actual_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtokyo-my.sharepoint.com/personal/1003519251_utac_u-tokyo_ac_jp/Documents/ドキュメント/GitHub/lab/actual_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_AD4D066CA252ABDACC10485A2151EF8673EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA70BCD3-7EEB-4D83-83B9-01743C759873}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_AD4D066CA252ABDACC10485A2151EF8673EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1C50B4C-B415-4D0A-AB39-8ED51783994E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="22040" yWindow="-610" windowWidth="23260" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="可視化" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2051,10 +2051,13 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
